--- a/team_specific_matrix/UMES_B.xlsx
+++ b/team_specific_matrix/UMES_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2408376963350785</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C2">
-        <v>0.4397905759162304</v>
+        <v>0.4851851851851852</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01570680628272251</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1780104712041885</v>
+        <v>0.1740740740740741</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1256544502617801</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01204819277108434</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04819277108433735</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6746987951807228</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2650602409638554</v>
+        <v>0.2205882352941176</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4210526315789473</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07352941176470588</v>
+        <v>0.0718232044198895</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05147058823529412</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2573529411764706</v>
+        <v>0.2375690607734807</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01470588235294118</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2058823529411765</v>
+        <v>0.2044198895027624</v>
       </c>
       <c r="R6">
-        <v>0.07352941176470588</v>
+        <v>0.06629834254143646</v>
       </c>
       <c r="S6">
-        <v>0.3235294117647059</v>
+        <v>0.3370165745856354</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.116504854368932</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01941747572815534</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06796116504854369</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1262135922330097</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01941747572815534</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1941747572815534</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="R7">
-        <v>0.08737864077669903</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="S7">
-        <v>0.3689320388349515</v>
+        <v>0.4013157894736842</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09504132231404959</v>
+        <v>0.1055718475073314</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01239669421487603</v>
+        <v>0.01466275659824047</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08677685950413223</v>
+        <v>0.06744868035190615</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1198347107438017</v>
+        <v>0.1202346041055719</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02479338842975207</v>
+        <v>0.02639296187683285</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1446280991735537</v>
+        <v>0.1671554252199413</v>
       </c>
       <c r="R8">
-        <v>0.0743801652892562</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S8">
-        <v>0.4421487603305785</v>
+        <v>0.4340175953079179</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08791208791208792</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02197802197802198</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08791208791208792</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1758241758241758</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01098901098901099</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1098901098901099</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="R9">
-        <v>0.06593406593406594</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="S9">
-        <v>0.4395604395604396</v>
+        <v>0.4435483870967742</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1103030303030303</v>
+        <v>0.1098214285714286</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01575757575757576</v>
+        <v>0.01696428571428571</v>
       </c>
       <c r="E10">
-        <v>0.002424242424242424</v>
+        <v>0.002678571428571429</v>
       </c>
       <c r="F10">
-        <v>0.06303030303030303</v>
+        <v>0.06160714285714286</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1624242424242424</v>
+        <v>0.1535714285714286</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02424242424242424</v>
+        <v>0.025</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2024242424242424</v>
+        <v>0.2080357142857143</v>
       </c>
       <c r="R10">
-        <v>0.07878787878787878</v>
+        <v>0.07232142857142858</v>
       </c>
       <c r="S10">
-        <v>0.3406060606060606</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1411042944785276</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08588957055214724</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="K11">
-        <v>0.1779141104294479</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="L11">
-        <v>0.588957055214724</v>
+        <v>0.55</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006134969325153374</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.71</v>
+        <v>0.7153284671532847</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.18</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="K12">
-        <v>0.02</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="L12">
-        <v>0.05</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04</v>
+        <v>0.04379562043795621</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02654867256637168</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1415929203539823</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="I15">
-        <v>0.04424778761061947</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="J15">
-        <v>0.415929203539823</v>
+        <v>0.3949044585987261</v>
       </c>
       <c r="K15">
-        <v>0.07964601769911504</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008849557522123894</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02654867256637168</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2566371681415929</v>
+        <v>0.2929936305732484</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.08</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.13</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="I16">
-        <v>0.07000000000000001</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="J16">
-        <v>0.47</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02281368821292776</v>
+        <v>0.01902173913043478</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1596958174904943</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="I17">
-        <v>0.08745247148288973</v>
+        <v>0.07880434782608696</v>
       </c>
       <c r="J17">
-        <v>0.4334600760456274</v>
+        <v>0.4483695652173913</v>
       </c>
       <c r="K17">
-        <v>0.1026615969581749</v>
+        <v>0.1005434782608696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007604562737642586</v>
+        <v>0.008152173913043478</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06083650190114068</v>
+        <v>0.0516304347826087</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1254752851711027</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0380952380952381</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1714285714285714</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="I18">
-        <v>0.0761904761904762</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="J18">
-        <v>0.4571428571428571</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="K18">
-        <v>0.1142857142857143</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.006802721088435374</v>
+        <v>0.008729388942774006</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2095238095238095</v>
+        <v>0.2201745877788555</v>
       </c>
       <c r="I19">
-        <v>0.06258503401360545</v>
+        <v>0.06498545101842872</v>
       </c>
       <c r="J19">
-        <v>0.4217687074829932</v>
+        <v>0.4073714839961203</v>
       </c>
       <c r="K19">
-        <v>0.09795918367346938</v>
+        <v>0.09893307468477207</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01496598639455782</v>
+        <v>0.01648884578079534</v>
       </c>
       <c r="N19">
-        <v>0.001360544217687075</v>
+        <v>0.001939864209505335</v>
       </c>
       <c r="O19">
-        <v>0.05442176870748299</v>
+        <v>0.05625606207565471</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1306122448979592</v>
+        <v>0.1251212415130941</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UMES_B.xlsx
+++ b/team_specific_matrix/UMES_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2111111111111111</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="C2">
-        <v>0.4851851851851852</v>
+        <v>0.4915824915824916</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01851851851851852</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1740740740740741</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1111111111111111</v>
+        <v>0.1043771043771044</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01470588235294118</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C3">
-        <v>0.02205882352941177</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04411764705882353</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6985294117647058</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2205882352941176</v>
+        <v>0.2039473684210526</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4230769230769231</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0718232044198895</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05524861878453038</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2375690607734807</v>
+        <v>0.2425742574257426</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02762430939226519</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2044198895027624</v>
+        <v>0.1930693069306931</v>
       </c>
       <c r="R6">
-        <v>0.06629834254143646</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="S6">
-        <v>0.3370165745856354</v>
+        <v>0.3267326732673267</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1118421052631579</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0131578947368421</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05263157894736842</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1052631578947368</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03289473684210526</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1907894736842105</v>
+        <v>0.1871345029239766</v>
       </c>
       <c r="R7">
-        <v>0.09210526315789473</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="S7">
-        <v>0.4013157894736842</v>
+        <v>0.391812865497076</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1055718475073314</v>
+        <v>0.1007751937984496</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01466275659824047</v>
+        <v>0.01808785529715762</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06744868035190615</v>
+        <v>0.06718346253229975</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1202346041055719</v>
+        <v>0.1291989664082687</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02639296187683285</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1671554252199413</v>
+        <v>0.165374677002584</v>
       </c>
       <c r="R8">
-        <v>0.06451612903225806</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="S8">
-        <v>0.4340175953079179</v>
+        <v>0.4263565891472868</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1370967741935484</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01612903225806452</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08870967741935484</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1451612903225807</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008064516129032258</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1129032258064516</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="R9">
-        <v>0.04838709677419355</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4435483870967742</v>
+        <v>0.4296296296296296</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1098214285714286</v>
+        <v>0.1071149335418295</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01696428571428571</v>
+        <v>0.01720093823299453</v>
       </c>
       <c r="E10">
-        <v>0.002678571428571429</v>
+        <v>0.002345582486317436</v>
       </c>
       <c r="F10">
-        <v>0.06160714285714286</v>
+        <v>0.06098514464425332</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1535714285714286</v>
+        <v>0.1532447224394058</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.025</v>
+        <v>0.02345582486317436</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2080357142857143</v>
+        <v>0.2111024237685692</v>
       </c>
       <c r="R10">
-        <v>0.07232142857142858</v>
+        <v>0.07193119624706802</v>
       </c>
       <c r="S10">
-        <v>0.35</v>
+        <v>0.3526192337763878</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1583333333333333</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09166666666666666</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="K11">
-        <v>0.1833333333333333</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="L11">
-        <v>0.55</v>
+        <v>0.5601503759398496</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01666666666666667</v>
+        <v>0.01503759398496241</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7153284671532847</v>
+        <v>0.7243589743589743</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1897810218978102</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K12">
-        <v>0.0145985401459854</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L12">
-        <v>0.0364963503649635</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04379562043795621</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02547770700636943</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1273885350318471</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="I15">
-        <v>0.03821656050955414</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="J15">
-        <v>0.3949044585987261</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="K15">
-        <v>0.08280254777070063</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01273885350318471</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02547770700636943</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2929936305732484</v>
+        <v>0.2717391304347826</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0641025641025641</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1282051282051282</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="I16">
-        <v>0.07051282051282051</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="J16">
-        <v>0.4487179487179487</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="K16">
-        <v>0.1153846153846154</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00641025641025641</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02564102564102564</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.141025641025641</v>
+        <v>0.1348314606741573</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01902173913043478</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1684782608695652</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17">
-        <v>0.07880434782608696</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="J17">
-        <v>0.4483695652173913</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="K17">
-        <v>0.1005434782608696</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008152173913043478</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0516304347826087</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.125</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03787878787878788</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1590909090909091</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="I18">
-        <v>0.07575757575757576</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="J18">
-        <v>0.4848484848484849</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K18">
-        <v>0.09848484848484848</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007575757575757576</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04545454545454546</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.08496732026143791</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008729388942774006</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2201745877788555</v>
+        <v>0.22</v>
       </c>
       <c r="I19">
-        <v>0.06498545101842872</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="J19">
-        <v>0.4073714839961203</v>
+        <v>0.4060869565217392</v>
       </c>
       <c r="K19">
-        <v>0.09893307468477207</v>
+        <v>0.09826086956521739</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01648884578079534</v>
+        <v>0.01565217391304348</v>
       </c>
       <c r="N19">
-        <v>0.001939864209505335</v>
+        <v>0.001739130434782609</v>
       </c>
       <c r="O19">
-        <v>0.05625606207565471</v>
+        <v>0.06347826086956522</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1251212415130941</v>
+        <v>0.1252173913043478</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UMES_B.xlsx
+++ b/team_specific_matrix/UMES_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2121212121212121</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C2">
-        <v>0.4915824915824916</v>
+        <v>0.5015673981191222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0202020202020202</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1717171717171717</v>
+        <v>0.1661442006269593</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1043771043771044</v>
+        <v>0.1065830721003135</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0131578947368421</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C3">
-        <v>0.02631578947368421</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04605263157894737</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7105263157894737</v>
+        <v>0.7048192771084337</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2039473684210526</v>
+        <v>0.2168674698795181</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06451612903225806</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5806451612903226</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3548387096774194</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07425742574257425</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07425742574257425</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2425742574257426</v>
+        <v>0.2372093023255814</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02475247524752475</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1930693069306931</v>
+        <v>0.1813953488372093</v>
       </c>
       <c r="R6">
-        <v>0.06435643564356436</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="S6">
-        <v>0.3267326732673267</v>
+        <v>0.3348837209302326</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01169590643274854</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04678362573099415</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1228070175438596</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03508771929824561</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1871345029239766</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R7">
-        <v>0.0935672514619883</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S7">
-        <v>0.391812865497076</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1007751937984496</v>
+        <v>0.1026252983293556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01808785529715762</v>
+        <v>0.01670644391408115</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06718346253229975</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1291989664082687</v>
+        <v>0.1431980906921241</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02325581395348837</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.165374677002584</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="R8">
-        <v>0.06976744186046512</v>
+        <v>0.06682577565632458</v>
       </c>
       <c r="S8">
-        <v>0.4263565891472868</v>
+        <v>0.4248210023866348</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1259259259259259</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01481481481481482</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08148148148148149</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1481481481481481</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007407407407407408</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1259259259259259</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.06293706293706294</v>
       </c>
       <c r="S9">
-        <v>0.4296296296296296</v>
+        <v>0.4195804195804196</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1071149335418295</v>
+        <v>0.1067538126361656</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01720093823299453</v>
+        <v>0.01815541031227306</v>
       </c>
       <c r="E10">
-        <v>0.002345582486317436</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="F10">
-        <v>0.06098514464425332</v>
+        <v>0.05954974582425563</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1532447224394058</v>
+        <v>0.1474219317356572</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02345582486317436</v>
+        <v>0.02323892519970951</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2111024237685692</v>
+        <v>0.2120551924473493</v>
       </c>
       <c r="R10">
-        <v>0.07193119624706802</v>
+        <v>0.074800290486565</v>
       </c>
       <c r="S10">
-        <v>0.3526192337763878</v>
+        <v>0.3558460421205519</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1503759398496241</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09398496240601503</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="K11">
-        <v>0.1804511278195489</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="L11">
-        <v>0.5601503759398496</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01503759398496241</v>
+        <v>0.01736111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7243589743589743</v>
+        <v>0.7168674698795181</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1794871794871795</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="K12">
-        <v>0.01282051282051282</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="L12">
-        <v>0.04487179487179487</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03846153846153846</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02173913043478261</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1358695652173913</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0.03260869565217391</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="J15">
-        <v>0.4239130434782609</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K15">
-        <v>0.07608695652173914</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0108695652173913</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02717391304347826</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2717391304347826</v>
+        <v>0.2807881773399015</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05617977528089887</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1348314606741573</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="I16">
-        <v>0.06741573033707865</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.4606741573033708</v>
+        <v>0.4739583333333333</v>
       </c>
       <c r="K16">
-        <v>0.1123595505617977</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01123595505617977</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02247191011235955</v>
+        <v>0.03125</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1348314606741573</v>
+        <v>0.1302083333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01666666666666667</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1666666666666667</v>
+        <v>0.1633109619686801</v>
       </c>
       <c r="I17">
-        <v>0.08095238095238096</v>
+        <v>0.07829977628635347</v>
       </c>
       <c r="J17">
-        <v>0.4523809523809524</v>
+        <v>0.4541387024608501</v>
       </c>
       <c r="K17">
-        <v>0.09523809523809523</v>
+        <v>0.09843400447427293</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0119047619047619</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05238095238095238</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1238095238095238</v>
+        <v>0.1252796420581656</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03267973856209151</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1568627450980392</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="I18">
-        <v>0.07843137254901961</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="J18">
-        <v>0.4705882352941176</v>
+        <v>0.4787878787878788</v>
       </c>
       <c r="K18">
-        <v>0.1176470588235294</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006535947712418301</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05228758169934641</v>
+        <v>0.04848484848484848</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08496732026143791</v>
+        <v>0.08484848484848485</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008695652173913044</v>
+        <v>0.008025682182985553</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.22</v>
+        <v>0.2199036918138042</v>
       </c>
       <c r="I19">
-        <v>0.06086956521739131</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="J19">
-        <v>0.4060869565217392</v>
+        <v>0.4020866773675763</v>
       </c>
       <c r="K19">
-        <v>0.09826086956521739</v>
+        <v>0.09951845906902086</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01565217391304348</v>
+        <v>0.01605136436597111</v>
       </c>
       <c r="N19">
-        <v>0.001739130434782609</v>
+        <v>0.001605136436597111</v>
       </c>
       <c r="O19">
-        <v>0.06347826086956522</v>
+        <v>0.06581059390048154</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1252173913043478</v>
+        <v>0.1252006420545747</v>
       </c>
     </row>
   </sheetData>
